--- a/Frontend/Reports/Teaching Percentage.xlsx
+++ b/Frontend/Reports/Teaching Percentage.xlsx
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Shyamal Patel</t>
+          <t>shyamal patel</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" s="5" t="n">
@@ -693,35 +693,35 @@
         <v>10.5</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>2.82094</v>
+        <v>3.69089</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>Phar300</t>
-        </is>
-      </c>
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>prit gor</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n"/>
       <c r="C3" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
       <c r="D3" s="8" t="n">
-        <v>3.17</v>
+        <v>2.17</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
@@ -730,31 +730,31 @@
       </c>
       <c r="G3" s="8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H3" s="8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8" t="n">
         <v>10.5</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M3" s="9" t="n">
-        <v>3.42443</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -766,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +775,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="34" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -823,14 +823,14 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>Prit Gor</t>
+          <t>shyamal patel</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0</v>
+        <v>3.69089</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>2.75</v>
+        <v>11.05</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>0</v>
@@ -842,471 +842,243 @@
         <v>0</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>2.75</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Shyamal Patel</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>6.245369999999999</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>lg gl</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>nj jn</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>prit gor</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>km mk</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Teaching</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>% Teaching</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Fn nf</t>
+          <t>shyamal patel</t>
         </is>
       </c>
       <c r="B7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>0</v>
+        <v>14.74</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>mnj nmj</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>ml lm</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>prit gor</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>%SH/Year</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>% Teaching</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Current assumption</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Teaching</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>% Teaching</t>
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>0 to 1</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>2.75h per clinical APPE rotation</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>Prit Gor</t>
+          <t>2 to 4</t>
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>1.4h per academic APPE rotation</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>Shyamal Patel</t>
+          <t>5 to 7</t>
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>lg gl</t>
+          <t>8 to 10</t>
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>nj jn</t>
+          <t>11 to 13</t>
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>km mk</t>
+          <t>14 to 16</t>
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>Fn nf</t>
+          <t>17 to 19</t>
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>mnj nmj</t>
+          <t>20 to 22</t>
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C19" s="6" t="n">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>ml lm</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>%SH/Year</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>% Teaching</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Current assumption</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>0 to 1</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>2.75h per clinical APPE rotation</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>2 to 4</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>1.4h per academic APPE rotation</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>5 to 7</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>23 to 25</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>8 to 10</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>11 to 13</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>14 to 16</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>17 to 19</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>20 to 22</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>23 to 25</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="C32" s="6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>26 to 28</t>
         </is>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B21" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="C33" s="9" t="inlineStr">
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t> </t>
         </is>
